--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2012-至今)/利润总额.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2012-至今)/利润总额.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AQ10"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1842,6 +1842,188 @@
         <v>177.47</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>2021年</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1468.85</v>
+      </c>
+      <c r="C11" t="n">
+        <v>399.3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>71.53</v>
+      </c>
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>1345.04</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2478.03</v>
+      </c>
+      <c r="H11" t="n">
+        <v>356.02</v>
+      </c>
+      <c r="I11" t="n">
+        <v>1385.88</v>
+      </c>
+      <c r="J11" t="n">
+        <v>301.63</v>
+      </c>
+      <c r="K11" t="n">
+        <v>330.89</v>
+      </c>
+      <c r="L11" t="n">
+        <v>249.62</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="N11" t="n">
+        <v>531.64</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1411.05</v>
+      </c>
+      <c r="P11" t="n">
+        <v>105.23</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>411.5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>994.5599999999999</v>
+      </c>
+      <c r="S11" t="n">
+        <v>51.91</v>
+      </c>
+      <c r="T11" t="n">
+        <v>871.84</v>
+      </c>
+      <c r="U11" t="n">
+        <v>5.14</v>
+      </c>
+      <c r="V11" t="n">
+        <v>1273.23</v>
+      </c>
+      <c r="W11" t="n">
+        <v>99.3</v>
+      </c>
+      <c r="X11" t="n">
+        <v>400.95</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>2308.29</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>412.76</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>497</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>31774.13</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>927.4</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>539.66</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2163.57</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>1454.47</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>362.68</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>597.8</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>24.58</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1483.92</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>318.76</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>2941.54</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>252.6</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>680.29</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>1948.3</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>308.95</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>2022年</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr"/>
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="n">
+        <v>26638</v>
+      </c>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr"/>
+      <c r="AO12" t="inlineStr"/>
+      <c r="AP12" t="inlineStr"/>
+      <c r="AQ12" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
